--- a/data/inputs.xlsx
+++ b/data/inputs.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="1201">
   <si>
     <t>email</t>
   </si>
@@ -3547,6 +3547,96 @@
   </si>
   <si>
     <t>test_10_26Mar19_1534391553594679957@frescano.se</t>
+  </si>
+  <si>
+    <t>test_1_30Mar19_1956431553956003219@frescano.se</t>
+  </si>
+  <si>
+    <t>test_2_30Mar19_1956441553956004331@frescano.se</t>
+  </si>
+  <si>
+    <t>test_3_30Mar19_1956441553956004770@frescano.se</t>
+  </si>
+  <si>
+    <t>test_4_30Mar19_1956451553956005198@frescano.se</t>
+  </si>
+  <si>
+    <t>test_5_30Mar19_1956451553956005611@frescano.se</t>
+  </si>
+  <si>
+    <t>test_6_30Mar19_1956461553956006163@frescano.se</t>
+  </si>
+  <si>
+    <t>test_7_30Mar19_1956461553956006530@frescano.se</t>
+  </si>
+  <si>
+    <t>test_8_30Mar19_1956471553956007042@frescano.se</t>
+  </si>
+  <si>
+    <t>test_9_30Mar19_1956471553956007350@frescano.se</t>
+  </si>
+  <si>
+    <t>test_10_30Mar19_1956471553956007641@frescano.se</t>
+  </si>
+  <si>
+    <t>test_1_30Mar19_1958171553956097872@frescano.se</t>
+  </si>
+  <si>
+    <t>test_2_30Mar19_1958181553956098582@frescano.se</t>
+  </si>
+  <si>
+    <t>test_3_30Mar19_1958191553956099082@frescano.se</t>
+  </si>
+  <si>
+    <t>test_4_30Mar19_1958191553956099460@frescano.se</t>
+  </si>
+  <si>
+    <t>test_5_30Mar19_1958191553956099904@frescano.se</t>
+  </si>
+  <si>
+    <t>test_6_30Mar19_1958201553956100249@frescano.se</t>
+  </si>
+  <si>
+    <t>test_7_30Mar19_1958201553956100700@frescano.se</t>
+  </si>
+  <si>
+    <t>test_8_30Mar19_1958201553956100977@frescano.se</t>
+  </si>
+  <si>
+    <t>test_9_30Mar19_1958211553956101257@frescano.se</t>
+  </si>
+  <si>
+    <t>test_10_30Mar19_1958211553956101495@frescano.se</t>
+  </si>
+  <si>
+    <t>test_1_30Mar19_2004331553956473261@frescano.se</t>
+  </si>
+  <si>
+    <t>test_2_30Mar19_2004331553956473897@frescano.se</t>
+  </si>
+  <si>
+    <t>test_3_30Mar19_2004341553956474283@frescano.se</t>
+  </si>
+  <si>
+    <t>test_4_30Mar19_2004341553956474729@frescano.se</t>
+  </si>
+  <si>
+    <t>test_5_30Mar19_2004351553956475102@frescano.se</t>
+  </si>
+  <si>
+    <t>test_6_30Mar19_2004351553956475454@frescano.se</t>
+  </si>
+  <si>
+    <t>test_7_30Mar19_2004351553956475903@frescano.se</t>
+  </si>
+  <si>
+    <t>test_8_30Mar19_2004361553956476195@frescano.se</t>
+  </si>
+  <si>
+    <t>test_9_30Mar19_2004361553956476465@frescano.se</t>
+  </si>
+  <si>
+    <t>test_10_30Mar19_2004361553956476724@frescano.se</t>
   </si>
 </sst>
 </file>
@@ -6654,7 +6744,7 @@
         <v>603</v>
       </c>
       <c r="C2" t="s">
-        <v>1161</v>
+        <v>1191</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -6689,7 +6779,7 @@
         <v>478</v>
       </c>
       <c r="C3" t="s">
-        <v>1162</v>
+        <v>1192</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -6724,7 +6814,7 @@
         <v>758</v>
       </c>
       <c r="C4" t="s">
-        <v>1163</v>
+        <v>1193</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -6759,7 +6849,7 @@
         <v>759</v>
       </c>
       <c r="C5" t="s">
-        <v>1164</v>
+        <v>1194</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -6794,7 +6884,7 @@
         <v>760</v>
       </c>
       <c r="C6" t="s">
-        <v>1165</v>
+        <v>1195</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -6829,7 +6919,7 @@
         <v>603</v>
       </c>
       <c r="C7" t="s">
-        <v>1166</v>
+        <v>1196</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -6864,7 +6954,7 @@
         <v>478</v>
       </c>
       <c r="C8" t="s">
-        <v>1167</v>
+        <v>1197</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -6899,7 +6989,7 @@
         <v>758</v>
       </c>
       <c r="C9" t="s">
-        <v>1168</v>
+        <v>1198</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -6934,7 +7024,7 @@
         <v>759</v>
       </c>
       <c r="C10" t="s">
-        <v>1169</v>
+        <v>1199</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -6969,7 +7059,7 @@
         <v>760</v>
       </c>
       <c r="C11" t="s">
-        <v>1170</v>
+        <v>1200</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
